--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value438.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value438.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.537066760595983</v>
+        <v>1.799304008483887</v>
       </c>
       <c r="B1">
-        <v>1.833491383502678</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.845965884350612</v>
+        <v>2.812331199645996</v>
       </c>
       <c r="D1">
-        <v>2.199364857621878</v>
+        <v>1.307560682296753</v>
       </c>
       <c r="E1">
-        <v>1.56666118697278</v>
+        <v>0.9523842930793762</v>
       </c>
     </row>
   </sheetData>
